--- a/assets/excel/backups/ping_pong_scoresheet_v2 copy.xlsx
+++ b/assets/excel/backups/ping_pong_scoresheet_v2 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktuten/Desktop/ping_pong/assets/excel/backups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E46F99-2D32-1841-9157-2CFB7EF46B28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40E980-164C-0F43-80DB-26375A29940D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1740" windowWidth="24420" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>

--- a/assets/excel/backups/ping_pong_scoresheet_v2 copy.xlsx
+++ b/assets/excel/backups/ping_pong_scoresheet_v2 copy.xlsx
@@ -5,30 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktuten/Desktop/ping_pong/assets/excel/backups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ktuten/Desktop/ping_pong/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40E980-164C-0F43-80DB-26375A29940D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9493186-F96F-D245-BB82-8685A3867B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="24420" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="15">
   <si>
     <t>Fritz</t>
   </si>
@@ -82,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,9 +100,8 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="AppleGothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -119,30 +110,8 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,20 +130,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD400"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD400"/>
-        <bgColor theme="6" tint="-0.24994659260841701"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,283 +193,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFAB1500"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="slantDashDot">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="slantDashDot">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFAB1500"/>
-      </right>
-      <top/>
-      <bottom style="slantDashDot">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFAB1500"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="slantDashDot">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="slantDashDot">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFAB1500"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color rgb="FFAB1500"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,101 +209,333 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="154">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1233,20 +1150,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFAB1500"/>
-      <color rgb="FFD4D4D4"/>
-      <color rgb="FFFFD400"/>
-      <color rgb="FF948A54"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FFFFE799"/>
-      <color rgb="FFFFF5D6"/>
-      <color rgb="FF76D5D6"/>
-      <color rgb="FFFFFDA9"/>
-      <color rgb="FFD9E1F1"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1579,21 +1482,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1611,13 +1512,13 @@
       <c r="A2" s="4">
         <v>43384</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1625,13 +1526,13 @@
       <c r="A3" s="4">
         <v>43384</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1639,13 +1540,13 @@
       <c r="A4" s="4">
         <v>43384</v>
       </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1653,13 +1554,13 @@
       <c r="A5" s="4">
         <v>43384</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1667,13 +1568,13 @@
       <c r="A6" s="4">
         <v>43384</v>
       </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1681,13 +1582,13 @@
       <c r="A7" s="4">
         <v>43384</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1695,13 +1596,13 @@
       <c r="A8" s="4">
         <v>43384</v>
       </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="5">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1709,13 +1610,13 @@
       <c r="A9" s="4">
         <v>43384</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1723,13 +1624,13 @@
       <c r="A10" s="4">
         <v>43384</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1737,13 +1638,13 @@
       <c r="A11" s="4">
         <v>43384</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1751,13 +1652,13 @@
       <c r="A12" s="4">
         <v>43384</v>
       </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="5">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1765,13 +1666,13 @@
       <c r="A13" s="4">
         <v>43384</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1779,13 +1680,13 @@
       <c r="A14" s="4">
         <v>43384</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1793,13 +1694,13 @@
       <c r="A15" s="4">
         <v>43384</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1807,13 +1708,13 @@
       <c r="A16" s="4">
         <v>43384</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1821,13 +1722,13 @@
       <c r="A17" s="4">
         <v>43384</v>
       </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1835,13 +1736,13 @@
       <c r="A18" s="4">
         <v>43396</v>
       </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1849,13 +1750,13 @@
       <c r="A19" s="4">
         <v>43396</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1863,13 +1764,13 @@
       <c r="A20" s="4">
         <v>43397</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1877,13 +1778,13 @@
       <c r="A21" s="4">
         <v>43397</v>
       </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
         <v>10</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1891,13 +1792,13 @@
       <c r="A22" s="4">
         <v>43397</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1905,13 +1806,13 @@
       <c r="A23" s="4">
         <v>43397</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1919,13 +1820,13 @@
       <c r="A24" s="4">
         <v>43399</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>13</v>
       </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="5">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1933,13 +1834,13 @@
       <c r="A25" s="4">
         <v>43399</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>20</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>18</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1947,13 +1848,13 @@
       <c r="A26" s="4">
         <v>43399</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>12</v>
       </c>
-      <c r="C26">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="5">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1961,13 +1862,13 @@
       <c r="A27" s="4">
         <v>43399</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1975,13 +1876,13 @@
       <c r="A28" s="4">
         <v>43399</v>
       </c>
-      <c r="B28">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="5">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1989,13 +1890,13 @@
       <c r="A29" s="4">
         <v>43399</v>
       </c>
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="1">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2003,13 +1904,13 @@
       <c r="A30" s="4">
         <v>43402</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>12</v>
       </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="5">
+        <v>15</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2017,13 +1918,13 @@
       <c r="A31" s="4">
         <v>43402</v>
       </c>
-      <c r="B31">
-        <v>15</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2031,13 +1932,13 @@
       <c r="A32" s="4">
         <v>43402</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>16</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2045,13 +1946,13 @@
       <c r="A33" s="4">
         <v>43402</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>18</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>16</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2059,13 +1960,13 @@
       <c r="A34" s="4">
         <v>43402</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>8</v>
       </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="5">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2073,13 +1974,13 @@
       <c r="A35" s="4">
         <v>43402</v>
       </c>
-      <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="1">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2087,13 +1988,13 @@
       <c r="A36" s="4">
         <v>43402</v>
       </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="5">
+        <v>15</v>
+      </c>
+      <c r="C36" s="5">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2101,13 +2002,13 @@
       <c r="A37" s="4">
         <v>43402</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>12</v>
       </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="1">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2115,13 +2016,13 @@
       <c r="A38" s="4">
         <v>43402</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>13</v>
       </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="5">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2129,13 +2030,13 @@
       <c r="A39" s="4">
         <v>43402</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>14</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2143,13 +2044,13 @@
       <c r="A40" s="4">
         <v>43402</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>9</v>
       </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="5">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2157,13 +2058,13 @@
       <c r="A41" s="4">
         <v>43402</v>
       </c>
-      <c r="B41">
-        <v>15</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="1">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2171,13 +2072,13 @@
       <c r="A42" s="4">
         <v>43402</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>22</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2185,13 +2086,13 @@
       <c r="A43" s="4">
         <v>43402</v>
       </c>
-      <c r="B43">
-        <v>15</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="1">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
         <v>13</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2199,13 +2100,13 @@
       <c r="A44" s="4">
         <v>43402</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>9</v>
       </c>
-      <c r="C44">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="5">
+        <v>15</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2213,13 +2114,13 @@
       <c r="A45" s="4">
         <v>43402</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>16</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>14</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2227,13 +2128,13 @@
       <c r="A46" s="4">
         <v>43402</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>16</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2241,13 +2142,13 @@
       <c r="A47" s="4">
         <v>43402</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>14</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2255,878 +2156,1470 @@
       <c r="A48" s="4">
         <v>43402</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>18</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D48" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>43405</v>
       </c>
-      <c r="B49">
-        <v>15</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="1">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D49" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>43405</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>11</v>
       </c>
-      <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <v>15</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>43405</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>10</v>
       </c>
-      <c r="C51">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>43409</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>12</v>
       </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
+        <v>15</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>43409</v>
       </c>
-      <c r="B53">
-        <v>15</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="1">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1">
         <v>7</v>
       </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D53" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>43409</v>
       </c>
-      <c r="B54">
-        <v>15</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="5">
+        <v>15</v>
+      </c>
+      <c r="C54" s="5">
         <v>7</v>
       </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D54" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>43409</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>16</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D55" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>43409</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>8</v>
       </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C56" s="5">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>43410</v>
       </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>15</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>43410</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>11</v>
       </c>
-      <c r="C58">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="5">
+        <v>15</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43410</v>
       </c>
-      <c r="B59">
-        <v>15</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
         <v>11</v>
       </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D59" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>43410</v>
       </c>
-      <c r="B60">
-        <v>15</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="5">
+        <v>15</v>
+      </c>
+      <c r="C60" s="5">
         <v>9</v>
       </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D60" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>43410</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>10</v>
       </c>
-      <c r="C61">
-        <v>15</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="31"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="14"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="33" t="s">
+      <c r="C61" s="1">
+        <v>15</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>43410</v>
+      </c>
+      <c r="B62" s="5">
+        <v>9</v>
+      </c>
+      <c r="C62" s="5">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>43410</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>15</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>43410</v>
+      </c>
+      <c r="B64" s="5">
+        <v>14</v>
+      </c>
+      <c r="C64" s="5">
+        <v>16</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>43410</v>
+      </c>
+      <c r="B65" s="1">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1">
+        <v>18</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B66" s="5">
+        <v>9</v>
+      </c>
+      <c r="C66" s="5">
+        <v>15</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B68" s="5">
+        <v>16</v>
+      </c>
+      <c r="C68" s="5">
+        <v>14</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B70" s="5">
+        <v>12</v>
+      </c>
+      <c r="C70" s="5">
+        <v>15</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B71" s="1">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1">
+        <v>15</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>43411</v>
+      </c>
+      <c r="B72" s="5">
+        <v>18</v>
+      </c>
+      <c r="C72" s="5">
+        <v>16</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>43412</v>
+      </c>
+      <c r="B73" s="1">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1">
+        <v>14</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>43412</v>
+      </c>
+      <c r="B74" s="5">
+        <v>15</v>
+      </c>
+      <c r="C74" s="5">
+        <v>11</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>43412</v>
+      </c>
+      <c r="B75" s="1">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>43412</v>
+      </c>
+      <c r="B76" s="5">
+        <v>9</v>
+      </c>
+      <c r="C76" s="5">
+        <v>15</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>43412</v>
+      </c>
+      <c r="B77" s="1">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>15</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>43412</v>
+      </c>
+      <c r="B78" s="5">
+        <v>15</v>
+      </c>
+      <c r="C78" s="5">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>43413</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>43413</v>
+      </c>
+      <c r="B80" s="1">
+        <v>16</v>
+      </c>
+      <c r="C80" s="1">
+        <v>18</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>43413</v>
+      </c>
+      <c r="B81" s="1">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>43413</v>
+      </c>
+      <c r="B82" s="1">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
+        <v>43417</v>
+      </c>
+      <c r="B83" s="1">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>43417</v>
+      </c>
+      <c r="B84" s="1">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1">
+        <v>13</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>43417</v>
+      </c>
+      <c r="B85" s="1">
+        <v>15</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>43417</v>
+      </c>
+      <c r="B86" s="1">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1">
+        <v>15</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="35" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="9">
+      <c r="B89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>17</v>
+      </c>
+      <c r="D89" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>20</v>
+      </c>
+      <c r="D90" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1">
+        <v>37</v>
+      </c>
+      <c r="D91" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>43.59</v>
+      </c>
+      <c r="D92" s="1">
+        <v>47.37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1">
+        <v>52.63</v>
+      </c>
+      <c r="D93" s="1">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1">
+        <v>48.05</v>
+      </c>
+      <c r="D94" s="1">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="D95" s="1">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
+      <c r="B96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>13.63</v>
+      </c>
+      <c r="D96" s="1">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
+      <c r="B99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="7">
-        <v>10</v>
-      </c>
-      <c r="E64" s="14"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
-      <c r="B65" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="19">
-        <v>11</v>
-      </c>
-      <c r="D65" s="20">
-        <v>16</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="21">
-        <v>25</v>
-      </c>
-      <c r="D66" s="22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="10">
-        <v>46.67</v>
-      </c>
-      <c r="D67" s="7">
-        <v>47.62</v>
-      </c>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
-      <c r="B68" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="17">
-        <v>52.38</v>
-      </c>
-      <c r="D68" s="18">
-        <v>53.33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="23">
-        <v>49.02</v>
-      </c>
-      <c r="D69" s="24">
-        <v>50.98</v>
-      </c>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="10">
-        <v>13.17</v>
-      </c>
-      <c r="D70" s="8">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
-      <c r="B71" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="17">
-        <v>13.24</v>
-      </c>
-      <c r="D71" s="18">
-        <v>13.57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="23">
-        <v>13.2</v>
-      </c>
-      <c r="D72" s="24">
-        <v>13.59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="10">
-        <v>0</v>
-      </c>
-      <c r="D73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
-      <c r="B74" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="10">
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
-        <v>0</v>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="101" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="17" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="100" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="19" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="151" priority="21" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="99" priority="23" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="98" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="23" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="97" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="25" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="148" priority="27" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="147" priority="29" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="146" priority="31" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="145" priority="33" operator="greaterThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="96" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="144" priority="35" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="142" priority="37" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="140" priority="41" operator="greaterThan">
+      <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="139" priority="43" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="138" priority="45" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="137" priority="47" operator="greaterThan">
+      <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="136" priority="49" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="135" priority="51" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="134" priority="53" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="133" priority="55" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="132" priority="3" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="131" priority="57" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="130" priority="59" operator="greaterThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="95" priority="31" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="94" priority="33" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="93" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="129" priority="61" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="128" priority="63" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="cellIs" dxfId="127" priority="65" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="cellIs" dxfId="126" priority="67" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="125" priority="69" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="124" priority="71" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="cellIs" dxfId="123" priority="73" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="cellIs" dxfId="122" priority="75" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="cellIs" dxfId="120" priority="77" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="cellIs" dxfId="119" priority="79" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="cellIs" dxfId="118" priority="81" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" dxfId="117" priority="83" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="cellIs" dxfId="116" priority="85" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="cellIs" dxfId="115" priority="87" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="114" priority="89" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="cellIs" dxfId="113" priority="91" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="112" priority="93" operator="greaterThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="92" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="B49">
+    <cfRule type="cellIs" dxfId="111" priority="95" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="cellIs" dxfId="109" priority="97" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="108" priority="99" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="107" priority="101" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="106" priority="103" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="104" priority="107" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="cellIs" dxfId="103" priority="109" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="102" priority="111" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="101" priority="113" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="100" priority="115" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="99" priority="9" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="98" priority="117" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="97" priority="119" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="96" priority="121" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="cellIs" dxfId="95" priority="123" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="94" priority="125" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="cellIs" dxfId="93" priority="127" operator="greaterThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="90" priority="39" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="89" priority="41" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="88" priority="43" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="87" priority="45" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="86" priority="47" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="85" priority="49" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="84" priority="51" operator="greaterThan">
+  <conditionalFormatting sqref="B66">
+    <cfRule type="cellIs" dxfId="92" priority="129" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="cellIs" dxfId="91" priority="131" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="cellIs" dxfId="90" priority="133" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="89" priority="135" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="cellIs" dxfId="87" priority="137" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="86" priority="139" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" dxfId="85" priority="141" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="84" priority="143" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="cellIs" dxfId="83" priority="145" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="cellIs" dxfId="82" priority="147" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="81" priority="149" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77">
+    <cfRule type="cellIs" dxfId="80" priority="151" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78">
+    <cfRule type="cellIs" dxfId="79" priority="153" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="83" priority="53" operator="greaterThan">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="76" priority="18" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="82" priority="55" operator="greaterThan">
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="73" priority="24" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="81" priority="57" operator="greaterThan">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="80" priority="5" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="79" priority="59" operator="greaterThan">
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="71" priority="28" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="70" priority="30" operator="greaterThan">
+      <formula>17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="69" priority="32" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="67" priority="36" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="65" priority="38" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="63" priority="42" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="62" priority="44" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="61" priority="46" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="59" priority="50" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="58" priority="52" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="78" priority="61" operator="greaterThan">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="53" priority="60" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="greaterThan">
+      <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="cellIs" dxfId="49" priority="68" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="48" priority="70" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="cellIs" dxfId="47" priority="72" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="cellIs" dxfId="45" priority="76" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="43" priority="78" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="42" priority="80" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="cellIs" dxfId="41" priority="82" operator="greaterThan">
+      <formula>22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="cellIs" dxfId="40" priority="84" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="39" priority="86" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="cellIs" dxfId="38" priority="88" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="cellIs" dxfId="37" priority="90" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="cellIs" dxfId="36" priority="92" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="35" priority="94" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="34" priority="96" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="greaterThan">
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="32" priority="98" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="31" priority="100" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="30" priority="102" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="cellIs" dxfId="29" priority="104" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="cellIs" dxfId="28" priority="106" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="27" priority="108" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="cellIs" dxfId="26" priority="110" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="cellIs" dxfId="25" priority="112" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="cellIs" dxfId="24" priority="114" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="cellIs" dxfId="23" priority="116" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="cellIs" dxfId="21" priority="118" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="cellIs" dxfId="20" priority="120" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="cellIs" dxfId="19" priority="122" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="18" priority="124" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="cellIs" dxfId="17" priority="126" operator="greaterThan">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="cellIs" dxfId="16" priority="128" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="cellIs" dxfId="15" priority="130" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="cellIs" dxfId="14" priority="132" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="cellIs" dxfId="13" priority="134" operator="greaterThan">
+      <formula>16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="cellIs" dxfId="12" priority="136" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="cellIs" dxfId="10" priority="138" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="9" priority="140" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="8" priority="142" operator="greaterThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="greaterThan">
-      <formula>18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="75" priority="67" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="71" priority="75" operator="greaterThan">
-      <formula>18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="70" priority="77" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="69" priority="7" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="68" priority="79" operator="greaterThan">
-      <formula>17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="66" priority="83" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="greaterThan">
+  <conditionalFormatting sqref="C73">
+    <cfRule type="cellIs" dxfId="7" priority="144" operator="greaterThan">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="64" priority="87" operator="greaterThan">
-      <formula>19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="63" priority="89" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="62" priority="91" operator="greaterThan">
-      <formula>14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="61" priority="93" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="60" priority="95" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="59" priority="97" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="57" priority="99" operator="greaterThan">
-      <formula>16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="56" priority="101" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="55" priority="103" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="49" priority="22" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="greaterThan">
+  <conditionalFormatting sqref="C74">
+    <cfRule type="cellIs" dxfId="6" priority="146" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="5" priority="148" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="cellIs" dxfId="4" priority="150" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="cellIs" dxfId="3" priority="152" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="47" priority="26" operator="greaterThan">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="greaterThan">
-      <formula>11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="greaterThan">
-      <formula>11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
-      <formula>13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="greaterThan">
-      <formula>13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="greaterThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="34" priority="50" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="28" priority="60" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="27" priority="62" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="26" priority="64" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="25" priority="66" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="24" priority="68" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="23" priority="70" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="22" priority="72" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="21" priority="74" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="20" priority="76" operator="greaterThan">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="19" priority="78" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="17" priority="80" operator="greaterThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="16" priority="82" operator="greaterThan">
-      <formula>11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="15" priority="84" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="14" priority="86" operator="greaterThan">
-      <formula>14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="13" priority="88" operator="greaterThan">
-      <formula>17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="12" priority="90" operator="greaterThan">
-      <formula>11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="11" priority="92" operator="greaterThan">
-      <formula>16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" dxfId="10" priority="94" operator="greaterThan">
-      <formula>18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="9" priority="96" operator="greaterThan">
-      <formula>13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="8" priority="98" operator="greaterThan">
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="6" priority="100" operator="greaterThan">
-      <formula>18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="5" priority="102" operator="greaterThan">
-      <formula>17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="4" priority="104" operator="greaterThan">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
-      <formula>10</formula>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="cellIs" dxfId="2" priority="154" operator="greaterThan">
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/excel/backups/ping_pong_scoresheet_v2 copy.xlsx
+++ b/assets/excel/backups/ping_pong_scoresheet_v2 copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="15">
   <si>
     <t>Fritz</t>
   </si>
@@ -603,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3454,174 +3454,216 @@
         <v>4</v>
       </c>
     </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>43449</v>
+      </c>
+      <c r="B204" s="3">
+        <v>11</v>
+      </c>
+      <c r="C204" s="3">
+        <v>15</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="205" spans="1:4">
-      <c r="C205" s="8" t="s">
+      <c r="A205" s="5">
+        <v>43449</v>
+      </c>
+      <c r="B205" s="6">
+        <v>15</v>
+      </c>
+      <c r="C205" s="6">
+        <v>7</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>43449</v>
+      </c>
+      <c r="B206" s="3">
+        <v>9</v>
+      </c>
+      <c r="C206" s="3">
+        <v>15</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="C208" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D208" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206" s="11">
-        <v>41</v>
-      </c>
-      <c r="D206" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="11">
-        <v>49</v>
-      </c>
-      <c r="D207" s="12">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B208" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" s="14">
-        <v>90</v>
-      </c>
-      <c r="D208" s="15">
-        <v>112</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C209" s="16">
-        <v>40.2</v>
-      </c>
-      <c r="D209" s="17">
+      <c r="C209" s="11">
+        <v>41</v>
+      </c>
+      <c r="D209" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C210" s="16">
-        <v>49</v>
-      </c>
-      <c r="D210" s="17">
-        <v>59.8</v>
+      <c r="C210" s="11">
+        <v>50</v>
+      </c>
+      <c r="D210" s="12">
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C211" s="18">
-        <v>44.55</v>
-      </c>
-      <c r="D211" s="13">
-        <v>55.45</v>
+      <c r="C211" s="14">
+        <v>91</v>
+      </c>
+      <c r="D211" s="15">
+        <v>114</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C212" s="16">
-        <v>12.74</v>
+        <v>39.42</v>
       </c>
       <c r="D212" s="17">
-        <v>13.72</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C213" s="16">
-        <v>13.38</v>
+        <v>49.5</v>
       </c>
       <c r="D213" s="17">
-        <v>13.85</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C214" s="18">
-        <v>13.05</v>
+        <v>44.39</v>
       </c>
       <c r="D214" s="13">
-        <v>13.79</v>
+        <v>55.61</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" s="11">
-        <v>0</v>
-      </c>
-      <c r="D215" s="12">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C215" s="16">
+        <v>12.68</v>
+      </c>
+      <c r="D215" s="17">
+        <v>13.65</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="D216" s="17">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="18">
+        <v>13.03</v>
+      </c>
+      <c r="D217" s="13">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B218" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="11">
+        <v>0</v>
+      </c>
+      <c r="D218" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C216" s="11">
+      <c r="C219" s="11">
         <v>7</v>
       </c>
-      <c r="D216" s="12">
+      <c r="D219" s="12">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A206:A208"/>
     <mergeCell ref="A209:A211"/>
     <mergeCell ref="A212:A214"/>
-    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="A218:A219"/>
   </mergeCells>
   <conditionalFormatting sqref="B10">
     <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
@@ -4203,6 +4245,21 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B204">
+    <cfRule type="cellIs" dxfId="0" priority="405" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
+    <cfRule type="cellIs" dxfId="0" priority="407" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B206">
+    <cfRule type="cellIs" dxfId="0" priority="409" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B21">
     <cfRule type="cellIs" dxfId="0" priority="39" operator="greaterThan">
       <formula>10</formula>
@@ -5213,6 +5270,21 @@
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="cellIs" dxfId="0" priority="406" operator="greaterThan">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="cellIs" dxfId="0" priority="408" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="cellIs" dxfId="0" priority="410" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
       <formula>15</formula>
